--- a/Plots/variable_summary_11nov2023.xlsx
+++ b/Plots/variable_summary_11nov2023.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/manishrv_umich_edu/Documents/Documents/Apostle_Islands_Ice_Cover_Model_Public/Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1042FA63-14DC-4644-978D-DBC1E5870766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C83F922-4851-4EB3-B298-4A743E62B2E9}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1042FA63-14DC-4644-978D-DBC1E5870766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636B51BF-0345-4E3D-B553-3FE263FD475A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nov11_2023" sheetId="4" r:id="rId1"/>
     <sheet name="june14_2023" sheetId="3" r:id="rId2"/>
     <sheet name="march_2023" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="presentation_nov112023" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">presentation_nov112023!$A$1:$K$15</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="62">
   <si>
     <t>AO</t>
   </si>
@@ -201,12 +205,54 @@
   <si>
     <t>Dec</t>
   </si>
+  <si>
+    <t>Artic Oscillation</t>
+  </si>
+  <si>
+    <t>El Niño Southern Oscillation</t>
+  </si>
+  <si>
+    <t>North Atlantic Oscillation</t>
+  </si>
+  <si>
+    <t>Pacific Decadal Oscillation</t>
+  </si>
+  <si>
+    <t>Pacific/North American Pattern</t>
+  </si>
+  <si>
+    <t>Southern Oscillation Index</t>
+  </si>
+  <si>
+    <t>Air Temperature</t>
+  </si>
+  <si>
+    <t>Water Temperature</t>
+  </si>
+  <si>
+    <t>East Pacific - North Pacific</t>
+  </si>
+  <si>
+    <t>Tropical/Northern Hemisphere Pattern</t>
+  </si>
+  <si>
+    <t>El Niño Outgoing Longwave Radiation</t>
+  </si>
+  <si>
+    <t>Atlantic Multidecadal Oscillation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accumulated Winter Season Severity Index </t>
+  </si>
+  <si>
+    <t>Teleconnection Indices and Local Climatological Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +293,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -606,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -677,6 +730,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -686,14 +757,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5279,6 +5356,429 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57005</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>44950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>175877</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50BBD653-808F-4094-B797-20F07C930A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1733405" y="1721350"/>
+          <a:ext cx="118872" cy="118875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>61578</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171306</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160589</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Chord 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06E4492C-D142-48E8-A1ED-2C4C67AED040}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1737978" y="1724585"/>
+          <a:ext cx="109728" cy="112404"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5357556"/>
+            <a:gd name="adj2" fmla="val 16200000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>40640</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>159512</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159515</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B641D8-221E-4398-B7E4-1D49649E208B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1503680" y="1518920"/>
+          <a:ext cx="118872" cy="118875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45213</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>43875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>154941</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>156279</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Chord 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2F2EB60-0FBF-4C39-8CD5-D296DEA7B48D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1508253" y="1522155"/>
+          <a:ext cx="109728" cy="112404"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5357556"/>
+            <a:gd name="adj2" fmla="val 16200000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>42456</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>36854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>156755</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>155726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Chord 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F75408D-2318-4530-826D-829AE30A9E16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1292136" y="417854"/>
+          <a:ext cx="114299" cy="118872"/>
+        </a:xfrm>
+        <a:prstGeom prst="chord">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 5357556"/>
+            <a:gd name="adj2" fmla="val 16200000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>51925</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>34790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>170797</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>153665</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B19ECCA5-B424-43C8-8B7E-2CA340202981}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1941685" y="1909310"/>
+          <a:ext cx="118872" cy="118875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5556,51 +6056,51 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="48" t="s">
+      <c r="E2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="46" t="s">
         <v>47</v>
       </c>
     </row>
@@ -5813,7 +6313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D57669B5-B891-498A-99E0-8708198905C1}">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
@@ -5825,20 +6325,20 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="41"/>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
@@ -6131,20 +6631,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="44" t="s">
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="46"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="52"/>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="20" t="s">
@@ -6422,6 +6922,279 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E5C4B3-9AC7-4D43-BE0D-106238B24B3F}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.6640625" style="1" customWidth="1"/>
+    <col min="2" max="11" width="3.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57"/>
+      <c r="B2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="19"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="29"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="38"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0D8456-F64C-46A1-BD4E-8420BACB09E9}">
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/Plots/variable_summary_11nov2023.xlsx
+++ b/Plots/variable_summary_11nov2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umich-my.sharepoint.com/personal/manishrv_umich_edu/Documents/Documents/Apostle_Islands_Ice_Cover_Model_Public/Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{1042FA63-14DC-4644-978D-DBC1E5870766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636B51BF-0345-4E3D-B553-3FE263FD475A}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{1042FA63-14DC-4644-978D-DBC1E5870766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{630C2BC2-06DB-4BD1-B65C-B6F4EB0034D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6926,7 +6926,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:K15"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
